--- a/sheets/Covid-19 Analysis.xlsx
+++ b/sheets/Covid-19 Analysis.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="275" documentId="8_{4A8F78E0-966E-4BED-8BA3-84E1FBE20D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{971AB3F7-DF72-435D-88AB-05568952673C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="699" activeTab="1" xr2:uid="{73C2FFD7-BF6E-46BC-AF21-3DD5EAC3E943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="699" activeTab="3" xr2:uid="{73C2FFD7-BF6E-46BC-AF21-3DD5EAC3E943}"/>
   </bookViews>
   <sheets>
     <sheet name="Adj Daily Deaths" sheetId="21" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="pop_by_age">'UK Pop by Age'!$F$5:$G$11</definedName>
     <definedName name="rebase_adjustment">'Rebased Deaths'!$M$4:$N$24</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21094,7 +21094,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7C1A143E-349C-4F89-8BE2-F54E90754587}">
   <sheetPr codeName="Chart6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21116,7 +21116,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B998FAE7-0E6B-4861-8855-9E9652771245}">
   <sheetPr codeName="Chart8"/>
   <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
